--- a/biology/Histoire de la zoologie et de la botanique/Frank_Evers_Beddard/Frank_Evers_Beddard.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Frank_Evers_Beddard/Frank_Evers_Beddard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Frank Evers Beddard est un zoologiste britannique, né le 19 juin 1858 à Dudley et mort le 14 juillet 1925.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fait ses études à Harrow puis à New College (Oxford). Il y obtient un Master of Arts puis un Doctorat of Sciences. Il occupe les fonctions de naturaliste à bord de l’HMS Challenge de 1882 à 1884. Il est ensuite prosecteur à la Zoological Society of London de 1884 à 1915 et donne des cours de biologie au Guy's Hospital. Il devient membre de la Royal Society en 1892. Il fait notamment paraître Animal coloration: an account of the principal facts and theories relating to the colours and markings of animals (1892), Text-book of zoogeography (1895), A monograph of the oligochaeta (1895), Structure and classification of birds (1898), A book of whales (1900) et Earthworms and their allies (1912). Il reçoit la médaille linnéenne en 1916.
 </t>
